--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H2">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I2">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J2">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N2">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O2">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P2">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q2">
-        <v>28.84761186454257</v>
+        <v>34.14364833350889</v>
       </c>
       <c r="R2">
-        <v>28.84761186454257</v>
+        <v>307.29283500158</v>
       </c>
       <c r="S2">
-        <v>0.03091403884861147</v>
+        <v>0.02914187331748007</v>
       </c>
       <c r="T2">
-        <v>0.03091403884861147</v>
+        <v>0.03040892406454288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H3">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I3">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J3">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N3">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O3">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P3">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q3">
-        <v>46.13273866617443</v>
+        <v>52.57773407150112</v>
       </c>
       <c r="R3">
-        <v>46.13273866617443</v>
+        <v>473.19960664351</v>
       </c>
       <c r="S3">
-        <v>0.04943734275182334</v>
+        <v>0.04487551097836586</v>
       </c>
       <c r="T3">
-        <v>0.04943734275182334</v>
+        <v>0.0468266398262103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H4">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I4">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J4">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N4">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O4">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P4">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q4">
-        <v>33.3288458003201</v>
+        <v>43.02366743254</v>
       </c>
       <c r="R4">
-        <v>33.3288458003201</v>
+        <v>387.21300689286</v>
       </c>
       <c r="S4">
-        <v>0.03571627484065272</v>
+        <v>0.03672103970043507</v>
       </c>
       <c r="T4">
-        <v>0.03571627484065272</v>
+        <v>0.03831762274362094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H5">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I5">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J5">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N5">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O5">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P5">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q5">
-        <v>51.15140253663565</v>
+        <v>55.62134053520555</v>
       </c>
       <c r="R5">
-        <v>51.15140253663565</v>
+        <v>500.59206481685</v>
       </c>
       <c r="S5">
-        <v>0.0548155061363029</v>
+        <v>0.04747325311556128</v>
       </c>
       <c r="T5">
-        <v>0.0548155061363029</v>
+        <v>0.04953732841265254</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H6">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I6">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J6">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N6">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O6">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P6">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q6">
-        <v>24.03732821462533</v>
+        <v>26.48120537428667</v>
       </c>
       <c r="R6">
-        <v>24.03732821462533</v>
+        <v>158.88723224572</v>
       </c>
       <c r="S6">
-        <v>0.02575918248390974</v>
+        <v>0.02260191777907546</v>
       </c>
       <c r="T6">
-        <v>0.02575918248390974</v>
+        <v>0.01572307984389108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.35189092391433</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H7">
-        <v>1.35189092391433</v>
+        <v>0.010756</v>
       </c>
       <c r="I7">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J7">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N7">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O7">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P7">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q7">
-        <v>40.18943827075253</v>
+        <v>0.1207472312648889</v>
       </c>
       <c r="R7">
-        <v>40.18943827075253</v>
+        <v>1.086725081384</v>
       </c>
       <c r="S7">
-        <v>0.04306830880281664</v>
+        <v>0.0001030587148328984</v>
       </c>
       <c r="T7">
-        <v>0.04306830880281664</v>
+        <v>0.0001075395737055513</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.35189092391433</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H8">
-        <v>1.35189092391433</v>
+        <v>0.010756</v>
       </c>
       <c r="I8">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J8">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N8">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O8">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P8">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q8">
-        <v>64.2704450403342</v>
+        <v>0.1859384138831111</v>
       </c>
       <c r="R8">
-        <v>64.2704450403342</v>
+        <v>1.673445724948</v>
       </c>
       <c r="S8">
-        <v>0.06887429864641743</v>
+        <v>0.0001586999036923932</v>
       </c>
       <c r="T8">
-        <v>0.06887429864641743</v>
+        <v>0.0001655999690842645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.35189092391433</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H9">
-        <v>1.35189092391433</v>
+        <v>0.010756</v>
       </c>
       <c r="I9">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J9">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N9">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O9">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P9">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q9">
-        <v>46.43252957010881</v>
+        <v>0.152150955592</v>
       </c>
       <c r="R9">
-        <v>46.43252957010881</v>
+        <v>1.369358600328</v>
       </c>
       <c r="S9">
-        <v>0.04975860843212318</v>
+        <v>0.0001298620413871844</v>
       </c>
       <c r="T9">
-        <v>0.04975860843212318</v>
+        <v>0.0001355082740353799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.35189092391433</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H10">
-        <v>1.35189092391433</v>
+        <v>0.010756</v>
       </c>
       <c r="I10">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J10">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N10">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O10">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P10">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q10">
-        <v>71.26226407792564</v>
+        <v>0.1967019693755555</v>
       </c>
       <c r="R10">
-        <v>71.26226407792564</v>
+        <v>1.77031772438</v>
       </c>
       <c r="S10">
-        <v>0.07636695926475559</v>
+        <v>0.0001678866832521699</v>
       </c>
       <c r="T10">
-        <v>0.07636695926475559</v>
+        <v>0.000175186177870073</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1095,49 +1095,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.35189092391433</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H11">
-        <v>1.35189092391433</v>
+        <v>0.010756</v>
       </c>
       <c r="I11">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J11">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N11">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O11">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P11">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q11">
-        <v>33.4879269386905</v>
+        <v>0.09364940144266667</v>
       </c>
       <c r="R11">
-        <v>33.4879269386905</v>
+        <v>0.5618964086560001</v>
       </c>
       <c r="S11">
-        <v>0.03588675136102315</v>
+        <v>7.993050322105286E-05</v>
       </c>
       <c r="T11">
-        <v>0.03588675136102315</v>
+        <v>5.560385169043011E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.61245436534784</v>
+        <v>1.664473</v>
       </c>
       <c r="H12">
-        <v>2.61245436534784</v>
+        <v>4.993418999999999</v>
       </c>
       <c r="I12">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="J12">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N12">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O12">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P12">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q12">
-        <v>77.6638644390799</v>
+        <v>56.05629590884065</v>
       </c>
       <c r="R12">
-        <v>77.6638644390799</v>
+        <v>504.5066631795659</v>
       </c>
       <c r="S12">
-        <v>0.08322712235857663</v>
+        <v>0.04784449095966687</v>
       </c>
       <c r="T12">
-        <v>0.08322712235857663</v>
+        <v>0.04992470719535147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.61245436534784</v>
+        <v>1.664473</v>
       </c>
       <c r="H13">
-        <v>2.61245436534784</v>
+        <v>4.993418999999999</v>
       </c>
       <c r="I13">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="J13">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N13">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O13">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P13">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q13">
-        <v>124.1990768177608</v>
+        <v>86.32097515003633</v>
       </c>
       <c r="R13">
-        <v>124.1990768177608</v>
+        <v>776.888776350327</v>
       </c>
       <c r="S13">
-        <v>0.1330957690270775</v>
+        <v>0.07367563354367482</v>
       </c>
       <c r="T13">
-        <v>0.1330957690270775</v>
+        <v>0.07687895426039225</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.61245436534784</v>
+        <v>1.664473</v>
       </c>
       <c r="H14">
-        <v>2.61245436534784</v>
+        <v>4.993418999999999</v>
       </c>
       <c r="I14">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="J14">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N14">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O14">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P14">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q14">
-        <v>89.72829273707029</v>
+        <v>70.63531726675799</v>
       </c>
       <c r="R14">
-        <v>89.72829273707029</v>
+        <v>635.7178554008219</v>
       </c>
       <c r="S14">
-        <v>0.09615575599527564</v>
+        <v>0.06028780074763414</v>
       </c>
       <c r="T14">
-        <v>0.09615575599527564</v>
+        <v>0.06290903590790931</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.61245436534784</v>
+        <v>1.664473</v>
       </c>
       <c r="H15">
-        <v>2.61245436534784</v>
+        <v>4.993418999999999</v>
       </c>
       <c r="I15">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="J15">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N15">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O15">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P15">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q15">
-        <v>137.7103800178668</v>
+        <v>91.31790174947166</v>
       </c>
       <c r="R15">
-        <v>137.7103800178668</v>
+        <v>821.8611157452449</v>
       </c>
       <c r="S15">
-        <v>0.1475749208537435</v>
+        <v>0.07794054983249971</v>
       </c>
       <c r="T15">
-        <v>0.1475749208537435</v>
+        <v>0.08132930356208644</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.61245436534784</v>
+        <v>1.664473</v>
       </c>
       <c r="H16">
-        <v>2.61245436534784</v>
+        <v>4.993418999999999</v>
       </c>
       <c r="I16">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="J16">
-        <v>0.529402728431564</v>
+        <v>0.2968558099164587</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N16">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O16">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P16">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q16">
-        <v>64.71356480752254</v>
+        <v>43.47626445727401</v>
       </c>
       <c r="R16">
-        <v>64.71356480752254</v>
+        <v>260.857586743644</v>
       </c>
       <c r="S16">
-        <v>0.06934916019689073</v>
+        <v>0.03710733483298312</v>
       </c>
       <c r="T16">
-        <v>0.06934916019689073</v>
+        <v>0.02581380899071921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H17">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J17">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.67810466666666</v>
+      </c>
+      <c r="N17">
+        <v>101.034314</v>
+      </c>
+      <c r="O17">
+        <v>0.1611708087274131</v>
+      </c>
+      <c r="P17">
+        <v>0.1681783058563055</v>
+      </c>
+      <c r="Q17">
+        <v>98.51272204325778</v>
+      </c>
+      <c r="R17">
+        <v>886.6144983893201</v>
+      </c>
+      <c r="S17">
+        <v>0.08408138573543331</v>
+      </c>
+      <c r="T17">
+        <v>0.08773713502270558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H18">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J18">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.86084433333334</v>
+      </c>
+      <c r="N18">
+        <v>155.582533</v>
+      </c>
+      <c r="O18">
+        <v>0.2481865979460151</v>
+      </c>
+      <c r="P18">
+        <v>0.2589774284088547</v>
+      </c>
+      <c r="Q18">
+        <v>151.6995387152823</v>
+      </c>
+      <c r="R18">
+        <v>1365.29584843754</v>
+      </c>
+      <c r="S18">
+        <v>0.1294767535202821</v>
+      </c>
+      <c r="T18">
+        <v>0.1351062343531678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H19">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J19">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>42.437046</v>
+      </c>
+      <c r="N19">
+        <v>127.311138</v>
+      </c>
+      <c r="O19">
+        <v>0.2030878249093402</v>
+      </c>
+      <c r="P19">
+        <v>0.2119178193804366</v>
+      </c>
+      <c r="Q19">
+        <v>124.13373490916</v>
+      </c>
+      <c r="R19">
+        <v>1117.20361418244</v>
+      </c>
+      <c r="S19">
+        <v>0.1059491224198838</v>
+      </c>
+      <c r="T19">
+        <v>0.110555652454871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H20">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J20">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>54.86295166666667</v>
+      </c>
+      <c r="N20">
+        <v>164.588855</v>
+      </c>
+      <c r="O20">
+        <v>0.2625535604455031</v>
+      </c>
+      <c r="P20">
+        <v>0.2739690477507386</v>
+      </c>
+      <c r="Q20">
+        <v>160.4810829322111</v>
+      </c>
+      <c r="R20">
+        <v>1444.3297463899</v>
+      </c>
+      <c r="S20">
+        <v>0.13697187081419</v>
+      </c>
+      <c r="T20">
+        <v>0.1429272295981295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H21">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I21">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J21">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.120138</v>
+      </c>
+      <c r="N21">
+        <v>52.24027600000001</v>
+      </c>
+      <c r="O21">
+        <v>0.1250012079717284</v>
+      </c>
+      <c r="P21">
+        <v>0.08695739860366467</v>
+      </c>
+      <c r="Q21">
+        <v>76.40471220081336</v>
+      </c>
+      <c r="R21">
+        <v>458.4282732048802</v>
+      </c>
+      <c r="S21">
+        <v>0.06521202485644877</v>
+      </c>
+      <c r="T21">
+        <v>0.04536490591736395</v>
       </c>
     </row>
   </sheetData>
